--- a/factor.xlsx
+++ b/factor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moriya\Documents\Python Scripts\kinyu\20201211_stat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4E7392-686A-4AFC-9E07-C37BAD23AF1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE12DDAC-3973-4D0A-8D82-2483584D1C11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{340751CE-B248-4F4C-8F10-0B95BBBE723C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{340751CE-B248-4F4C-8F10-0B95BBBE723C}"/>
   </bookViews>
   <sheets>
     <sheet name="基準値" sheetId="1" r:id="rId1"/>
@@ -834,7 +834,7 @@
     <numFmt numFmtId="176" formatCode="0.0"/>
     <numFmt numFmtId="177" formatCode="#,##0.0;[Red]\-#,##0.0"/>
     <numFmt numFmtId="178" formatCode="#,##0.0000;[Red]\-#,##0.0000"/>
-    <numFmt numFmtId="191" formatCode="0.0000"/>
+    <numFmt numFmtId="179" formatCode="0.0000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -909,7 +909,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -955,7 +955,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1174,100 +1177,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>13.208241700072897</c:v>
+                  <c:v>10.250087767842921</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.504785656229657</c:v>
+                  <c:v>11.259823428273823</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.909241673944324</c:v>
+                  <c:v>12.337439605830902</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.8179173294353923</c:v>
+                  <c:v>6.7117639399248645</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.682715399453979</c:v>
+                  <c:v>11.274665807305663</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.631001225519366</c:v>
+                  <c:v>8.966702288657606</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.563556187045675</c:v>
+                  <c:v>8.9242769654537462</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.920586464701284</c:v>
+                  <c:v>10.795259655102038</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16.311339261593737</c:v>
+                  <c:v>12.687455006352261</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19.194440839344125</c:v>
+                  <c:v>14.889355216990667</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.188008188530791</c:v>
+                  <c:v>10.237360170881763</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15.365509505500162</c:v>
+                  <c:v>11.898331026581435</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15.534122101684387</c:v>
+                  <c:v>12.004394334591085</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>16.466462850083225</c:v>
+                  <c:v>12.78503324972114</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>17.219274637795824</c:v>
+                  <c:v>13.355660330902575</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12.691487547018212</c:v>
+                  <c:v>9.8279493178749977</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16.122493153867406</c:v>
+                  <c:v>12.568664101381451</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>12.752188081644533</c:v>
+                  <c:v>9.866132108758471</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>15.230619428552783</c:v>
+                  <c:v>11.813480380173713</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>16.399017811609532</c:v>
+                  <c:v>12.74260792651728</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>13.944991836898032</c:v>
+                  <c:v>10.907693245681781</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>18.421395540089421</c:v>
+                  <c:v>14.306000538848075</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.9391041855605593</c:v>
+                  <c:v>7.6111937600257304</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>17.205785630101087</c:v>
+                  <c:v>13.347175266261804</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>16.08459877397592</c:v>
+                  <c:v>12.447745446160939</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>17.317869552313631</c:v>
+                  <c:v>13.514761777006566</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>11.988459929429922</c:v>
+                  <c:v>9.1915565016380665</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>15.497826939254816</c:v>
+                  <c:v>12.078645134287353</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>14.446657764796065</c:v>
+                  <c:v>11.126177176092151</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>15.824135767121254</c:v>
+                  <c:v>12.186823224367686</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>14.07571005319077</c:v>
+                  <c:v>10.892837898470917</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>12.455429912360298</c:v>
+                  <c:v>9.6794606866614856</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2362,8 +2365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F934DCCD-BE1A-4D56-8344-F43A1BA33604}">
   <dimension ref="A1:Z75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:H36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -2508,6 +2511,10 @@
       <c r="T4" s="9">
         <v>0.34420392018319379</v>
       </c>
+      <c r="U4" s="16">
+        <f>SUM(S3:T4)</f>
+        <v>1.5730600652723998</v>
+      </c>
       <c r="W4" t="s">
         <v>21</v>
       </c>
@@ -2555,7 +2562,7 @@
         <v>-0.12473327484649839</v>
       </c>
       <c r="N5">
-        <f t="shared" ref="N5:N38" si="1">+A5</f>
+        <f t="shared" ref="N5:N36" si="1">+A5</f>
         <v>1</v>
       </c>
       <c r="O5" s="5">
@@ -4801,8 +4808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{422D17EC-BE50-4A6A-B14F-D1FB1DEF544E}">
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:B57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -4855,26 +4862,29 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10">
-        <v>0.48106415605145553</v>
+        <v>0.89054625985147406</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <f>COS(A10)</f>
+        <v>0.62898744958920205</v>
       </c>
       <c r="D10">
-        <f>-A10</f>
-        <v>-0.48106415605145553</v>
+        <f>SIN(A10)</f>
+        <v>0.77741545409084256</v>
       </c>
       <c r="F10">
         <f>SUM(J18:K18)</f>
-        <v>1.9527063182181666E-2</v>
+        <v>4.3526942400366586E-2</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C11">
-        <v>2.5000000000000001E-2</v>
+        <f>-D10</f>
+        <v>-0.77741545409084256</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <f>+C10</f>
+        <v>0.62898744958920205</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
@@ -4923,25 +4933,29 @@
         <f>+基準値!K3</f>
         <v>-4.0856170100540061E-5</v>
       </c>
+      <c r="D16">
+        <f>+B16^2+C16^2</f>
+        <v>0.45488470091500255</v>
+      </c>
       <c r="E16">
         <f>+B16*$C$10+C16*$C$11</f>
-        <v>0.67445038473689856</v>
+        <v>0.42425323203860482</v>
       </c>
       <c r="F16">
         <f>+B16*$D$10+C16*$D$11</f>
-        <v>-0.32449525266311086</v>
+        <v>0.52430324814919871</v>
       </c>
       <c r="H16">
         <f>SUMSQ(E16:F16)</f>
-        <v>0.56018049047264662</v>
+        <v>0.45488470091500255</v>
       </c>
       <c r="J16">
         <f>+E16^2/$H16</f>
-        <v>0.81202992465508261</v>
+        <v>0.39568445483690701</v>
       </c>
       <c r="K16">
         <f>+F16^2/$H16</f>
-        <v>0.18797007534491739</v>
+        <v>0.60431554516309294</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
@@ -4956,38 +4970,60 @@
         <f>+基準値!L3</f>
         <v>-0.12243632696036949</v>
       </c>
+      <c r="D17">
+        <f>+B17^2+C17^2</f>
+        <v>0.34420392018319379</v>
+      </c>
       <c r="E17">
         <f>+B17*$C$10+C17*$C$11</f>
-        <v>0.57071018383363736</v>
+        <v>0.45607870853101157</v>
       </c>
       <c r="F17">
         <f>+B17*$D$10+C17*$D$11</f>
-        <v>-0.39845703310375008</v>
+        <v>0.36904760100545075</v>
       </c>
       <c r="H17">
         <f>SUMSQ(E17:F17)</f>
-        <v>0.48447812116126709</v>
+        <v>0.34420392018319379</v>
       </c>
       <c r="J17">
         <f>+E17^2/$H17</f>
-        <v>0.67229065607898886</v>
+        <v>0.60431557044617201</v>
       </c>
       <c r="K17">
         <f>+F17^2/$H17</f>
-        <v>0.32770934392101114</v>
+        <v>0.39568442955382799</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="D18">
+        <f>SUM(D16:D17)</f>
+        <v>0.79908862109819634</v>
+      </c>
+      <c r="H18">
+        <f>SUM(H16:H17)</f>
+        <v>0.79908862109819634</v>
+      </c>
       <c r="I18" t="s">
         <v>3</v>
       </c>
       <c r="J18">
         <f>VAR(J16:J17)</f>
-        <v>9.7635315910908314E-3</v>
+        <v>2.1763471200183293E-2</v>
       </c>
       <c r="K18">
         <f>VAR(K16:K17)</f>
-        <v>9.7635315910908349E-3</v>
+        <v>2.1763471200183293E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J19">
+        <f>+J16+J17</f>
+        <v>1.000000025283079</v>
+      </c>
+      <c r="K19">
+        <f>+K16+K17</f>
+        <v>0.99999997471692093</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
@@ -5010,11 +5046,11 @@
       </c>
       <c r="F25">
         <f>+E16</f>
-        <v>0.67445038473689856</v>
+        <v>0.42425323203860482</v>
       </c>
       <c r="G25">
         <f>+E17</f>
-        <v>0.57071018383363736</v>
+        <v>0.45607870853101157</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
@@ -5023,22 +5059,22 @@
       </c>
       <c r="B26">
         <f>SUMPRODUCT(F$25:G$25,基準値!B5:C5)</f>
-        <v>13.208241700072897</v>
+        <v>10.250087767842921</v>
       </c>
       <c r="C26">
         <f>SUMPRODUCT(F$26:G$26,基準値!B5:C5)</f>
-        <v>-8.8322980341588764</v>
+        <v>8.7755986601858851</v>
       </c>
       <c r="E26" t="s">
         <v>6</v>
       </c>
       <c r="F26">
         <f>+F16</f>
-        <v>-0.32449525266311086</v>
+        <v>0.52430324814919871</v>
       </c>
       <c r="G26">
         <f>+F17</f>
-        <v>-0.39845703310375008</v>
+        <v>0.36904760100545075</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.15">
@@ -5048,11 +5084,11 @@
       </c>
       <c r="B27">
         <f>SUMPRODUCT(F$25:G$25,基準値!B6:C6)</f>
-        <v>14.504785656229657</v>
+        <v>11.259823428273823</v>
       </c>
       <c r="C27">
         <f>SUMPRODUCT(F$26:G$26,基準値!B6:C6)</f>
-        <v>-9.7038460084788927</v>
+        <v>9.6342836092711011</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
@@ -5062,11 +5098,11 @@
       </c>
       <c r="B28">
         <f>SUMPRODUCT(F$25:G$25,基準値!B7:C7)</f>
-        <v>15.909241673944324</v>
+        <v>12.337439605830902</v>
       </c>
       <c r="C28">
         <f>SUMPRODUCT(F$26:G$26,基準値!B7:C7)</f>
-        <v>-10.627313223225006</v>
+        <v>10.57685707806019</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
@@ -5076,11 +5112,11 @@
       </c>
       <c r="B29">
         <f>SUMPRODUCT(F$25:G$25,基準値!B8:C8)</f>
-        <v>8.8179173294353923</v>
+        <v>6.7117639399248645</v>
       </c>
       <c r="C29">
         <f>SUMPRODUCT(F$26:G$26,基準値!B8:C8)</f>
-        <v>-5.7290105350212848</v>
+        <v>5.9595366966610683</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
@@ -5090,11 +5126,11 @@
       </c>
       <c r="B30">
         <f>SUMPRODUCT(F$25:G$25,基準値!B9:C9)</f>
-        <v>14.682715399453979</v>
+        <v>11.274665807305663</v>
       </c>
       <c r="C30">
         <f>SUMPRODUCT(F$26:G$26,基準値!B9:C9)</f>
-        <v>-9.6655787058311944</v>
+        <v>9.8472126137112603</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.15">
@@ -5104,11 +5140,11 @@
       </c>
       <c r="B31">
         <f>SUMPRODUCT(F$25:G$25,基準値!B10:C10)</f>
-        <v>11.631001225519366</v>
+        <v>8.966702288657606</v>
       </c>
       <c r="C31">
         <f>SUMPRODUCT(F$26:G$26,基準値!B10:C10)</f>
-        <v>-7.7018259853802489</v>
+        <v>7.7733165067993717</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.15">
@@ -5118,11 +5154,11 @@
       </c>
       <c r="B32">
         <f>SUMPRODUCT(F$25:G$25,基準値!B11:C11)</f>
-        <v>11.563556187045675</v>
+        <v>8.9242769654537462</v>
       </c>
       <c r="C32">
         <f>SUMPRODUCT(F$26:G$26,基準値!B11:C11)</f>
-        <v>-7.6693764601139378</v>
+        <v>7.7208861819844508</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
@@ -5132,11 +5168,11 @@
       </c>
       <c r="B33">
         <f>SUMPRODUCT(F$25:G$25,基準値!B12:C12)</f>
-        <v>13.920586464701284</v>
+        <v>10.795259655102038</v>
       </c>
       <c r="C33">
         <f>SUMPRODUCT(F$26:G$26,基準値!B12:C12)</f>
-        <v>-9.2988990703218803</v>
+        <v>9.2547499433026665</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
@@ -5146,11 +5182,11 @@
       </c>
       <c r="B34">
         <f>SUMPRODUCT(F$25:G$25,基準値!B13:C13)</f>
-        <v>16.311339261593737</v>
+        <v>12.687455006352261</v>
       </c>
       <c r="C34">
         <f>SUMPRODUCT(F$26:G$26,基準値!B13:C13)</f>
-        <v>-10.944646443162977</v>
+        <v>10.814828867028341</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
@@ -5160,11 +5196,11 @@
       </c>
       <c r="B35">
         <f>SUMPRODUCT(F$25:G$25,基準値!B14:C14)</f>
-        <v>19.194440839344125</v>
+        <v>14.889355216990667</v>
       </c>
       <c r="C35">
         <f>SUMPRODUCT(F$26:G$26,基準値!B14:C14)</f>
-        <v>-12.827275350448147</v>
+        <v>12.757649161902931</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
@@ -5174,11 +5210,11 @@
       </c>
       <c r="B36">
         <f>SUMPRODUCT(F$25:G$25,基準値!B15:C15)</f>
-        <v>13.188008188530791</v>
+        <v>10.237360170881763</v>
       </c>
       <c r="C36">
         <f>SUMPRODUCT(F$26:G$26,基準値!B15:C15)</f>
-        <v>-8.8225631765789831</v>
+        <v>8.7598695627414074</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
@@ -5188,11 +5224,11 @@
       </c>
       <c r="B37">
         <f>SUMPRODUCT(F$25:G$25,基準値!B16:C16)</f>
-        <v>15.365509505500162</v>
+        <v>11.898331026581435</v>
       </c>
       <c r="C37">
         <f>SUMPRODUCT(F$26:G$26,基準値!B16:C16)</f>
-        <v>-10.24183600022778</v>
+        <v>10.228781606980707</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
@@ -5202,11 +5238,11 @@
       </c>
       <c r="B38">
         <f>SUMPRODUCT(F$25:G$25,基準値!B17:C17)</f>
-        <v>15.534122101684387</v>
+        <v>12.004394334591085</v>
       </c>
       <c r="C38">
         <f>SUMPRODUCT(F$26:G$26,基準値!B17:C17)</f>
-        <v>-10.322959813393556</v>
+        <v>10.359857419018006</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
@@ -5216,11 +5252,11 @@
       </c>
       <c r="B39">
         <f>SUMPRODUCT(F$25:G$25,基準値!B18:C18)</f>
-        <v>16.466462850083225</v>
+        <v>12.78503324972114</v>
       </c>
       <c r="C39">
         <f>SUMPRODUCT(F$26:G$26,基準値!B18:C18)</f>
-        <v>-11.019280351275494</v>
+        <v>10.935418614102657</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
@@ -5230,11 +5266,11 @@
       </c>
       <c r="B40">
         <f>SUMPRODUCT(F$25:G$25,基準値!B19:C19)</f>
-        <v>17.219274637795824</v>
+        <v>13.355660330902575</v>
       </c>
       <c r="C40">
         <f>SUMPRODUCT(F$26:G$26,基準値!B19:C19)</f>
-        <v>-11.505351102598283</v>
+        <v>11.44602809210839</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
@@ -5244,11 +5280,11 @@
       </c>
       <c r="B41">
         <f>SUMPRODUCT(F$25:G$25,基準値!B20:C20)</f>
-        <v>12.691487547018212</v>
+        <v>9.8279493178749977</v>
       </c>
       <c r="C41">
         <f>SUMPRODUCT(F$26:G$26,基準値!B20:C20)</f>
-        <v>-8.459800621268176</v>
+        <v>8.4484953190323697</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
@@ -5258,11 +5294,11 @@
       </c>
       <c r="B42">
         <f>SUMPRODUCT(F$25:G$25,基準値!B21:C21)</f>
-        <v>16.122493153867406</v>
+        <v>12.568664101381451</v>
       </c>
       <c r="C42">
         <f>SUMPRODUCT(F$26:G$26,基準値!B21:C21)</f>
-        <v>-10.853787772417308</v>
+        <v>10.668023957546566</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
@@ -5272,11 +5308,11 @@
       </c>
       <c r="B43">
         <f>SUMPRODUCT(F$25:G$25,基準値!B22:C22)</f>
-        <v>12.752188081644533</v>
+        <v>9.866132108758471</v>
       </c>
       <c r="C43">
         <f>SUMPRODUCT(F$26:G$26,基準値!B22:C22)</f>
-        <v>-8.4890051940078557</v>
+        <v>8.4956826113657975</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
@@ -5286,11 +5322,11 @@
       </c>
       <c r="B44">
         <f>SUMPRODUCT(F$25:G$25,基準値!B23:C23)</f>
-        <v>15.230619428552783</v>
+        <v>11.813480380173713</v>
       </c>
       <c r="C44">
         <f>SUMPRODUCT(F$26:G$26,基準値!B23:C23)</f>
-        <v>-10.176936949695158</v>
+        <v>10.123920957350867</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
@@ -5300,11 +5336,11 @@
       </c>
       <c r="B45">
         <f>SUMPRODUCT(F$25:G$25,基準値!B24:C24)</f>
-        <v>16.399017811609532</v>
+        <v>12.74260792651728</v>
       </c>
       <c r="C45">
         <f>SUMPRODUCT(F$26:G$26,基準値!B24:C24)</f>
-        <v>-10.986830826009182</v>
+        <v>10.882988289287738</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
@@ -5314,11 +5350,11 @@
       </c>
       <c r="B46">
         <f>SUMPRODUCT(F$25:G$25,基準値!B25:C25)</f>
-        <v>13.944991836898032</v>
+        <v>10.907693245681781</v>
       </c>
       <c r="C46">
         <f>SUMPRODUCT(F$26:G$26,基準値!B25:C25)</f>
-        <v>-9.4345149487685092</v>
+        <v>9.1991119133072665</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
@@ -5328,11 +5364,11 @@
       </c>
       <c r="B47">
         <f>SUMPRODUCT(F$25:G$25,基準値!B26:C26)</f>
-        <v>18.421395540089421</v>
+        <v>14.306000538848075</v>
       </c>
       <c r="C47">
         <f>SUMPRODUCT(F$26:G$26,基準値!B26:C26)</f>
-        <v>-12.331469741545463</v>
+        <v>12.23131058645272</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
@@ -5342,11 +5378,11 @@
       </c>
       <c r="B48">
         <f>SUMPRODUCT(F$25:G$25,基準値!B27:C27)</f>
-        <v>9.9391041855605593</v>
+        <v>7.6111937600257304</v>
       </c>
       <c r="C48">
         <f>SUMPRODUCT(F$26:G$26,基準値!B27:C27)</f>
-        <v>-6.5161897436488916</v>
+        <v>6.6819028012274941</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
@@ -5356,11 +5392,11 @@
       </c>
       <c r="B49">
         <f>SUMPRODUCT(F$25:G$25,基準値!B28:C28)</f>
-        <v>17.205785630101087</v>
+        <v>13.347175266261804</v>
       </c>
       <c r="C49">
         <f>SUMPRODUCT(F$26:G$26,基準値!B28:C28)</f>
-        <v>-11.49886119754502</v>
+        <v>11.435542027145406</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
@@ -5370,11 +5406,11 @@
       </c>
       <c r="B50">
         <f>SUMPRODUCT(F$25:G$25,基準値!B29:C29)</f>
-        <v>16.08459877397592</v>
+        <v>12.447745446160939</v>
       </c>
       <c r="C50">
         <f>SUMPRODUCT(F$26:G$26,基準値!B29:C29)</f>
-        <v>-10.711681988917414</v>
+        <v>10.71317592257898</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
@@ -5384,11 +5420,11 @@
       </c>
       <c r="B51">
         <f>SUMPRODUCT(F$25:G$25,基準値!B30:C30)</f>
-        <v>17.317869552313631</v>
+        <v>13.514761777006566</v>
       </c>
       <c r="C51">
         <f>SUMPRODUCT(F$26:G$26,基準値!B30:C30)</f>
-        <v>-11.676661458837856</v>
+        <v>11.448063419409403</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
@@ -5398,11 +5434,11 @@
       </c>
       <c r="B52">
         <f>SUMPRODUCT(F$25:G$25,基準値!B31:C31)</f>
-        <v>11.988459929429922</v>
+        <v>9.1915565016380665</v>
       </c>
       <c r="C52">
         <f>SUMPRODUCT(F$26:G$26,基準値!B31:C31)</f>
-        <v>-7.8738084692916974</v>
+        <v>8.051197228318447</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
@@ -5412,11 +5448,11 @@
       </c>
       <c r="B53">
         <f>SUMPRODUCT(F$25:G$25,基準値!B32:C32)</f>
-        <v>15.497826939254816</v>
+        <v>12.078645134287353</v>
       </c>
       <c r="C53">
         <f>SUMPRODUCT(F$26:G$26,基準値!B32:C32)</f>
-        <v>-10.429371119100509</v>
+        <v>10.257032096689178</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
@@ -5426,11 +5462,11 @@
       </c>
       <c r="B54">
         <f>SUMPRODUCT(F$25:G$25,基準値!B33:C33)</f>
-        <v>14.446657764796065</v>
+        <v>11.126177176092151</v>
       </c>
       <c r="C54">
         <f>SUMPRODUCT(F$26:G$26,基準値!B33:C33)</f>
-        <v>-9.5520053673991061</v>
+        <v>9.6637064768590406</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
@@ -5440,11 +5476,11 @@
       </c>
       <c r="B55">
         <f>SUMPRODUCT(F$25:G$25,基準値!B34:C34)</f>
-        <v>15.824135767121254</v>
+        <v>12.186823224367686</v>
       </c>
       <c r="C55">
         <f>SUMPRODUCT(F$26:G$26,基準値!B34:C34)</f>
-        <v>-10.462492772038694</v>
+        <v>10.585307815722162</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
@@ -5454,11 +5490,11 @@
       </c>
       <c r="B56">
         <f>SUMPRODUCT(F$25:G$25,基準値!B35:C35)</f>
-        <v>14.07571005319077</v>
+        <v>10.892837898470917</v>
       </c>
       <c r="C56">
         <f>SUMPRODUCT(F$26:G$26,基準値!B35:C35)</f>
-        <v>-9.3735329784343957</v>
+        <v>9.3753396903769808</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
@@ -5468,11 +5504,11 @@
       </c>
       <c r="B57">
         <f>SUMPRODUCT(F$25:G$25,基準値!B36:C36)</f>
-        <v>12.455429912360298</v>
+        <v>9.6794606866614856</v>
       </c>
       <c r="C57">
         <f>SUMPRODUCT(F$26:G$26,基準値!B36:C36)</f>
-        <v>-8.3462272828360859</v>
+        <v>8.26498918218015</v>
       </c>
     </row>
   </sheetData>
